--- a/experiment_results/DataV2_0.5/ExamDB/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_0.5/ExamDB/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -759,13 +759,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2013,10 +2013,10 @@
         <v>79</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>1.593625498007968</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E35">
         <v>41</v>
@@ -2675,13 +2675,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -4591,13 +4591,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -6507,13 +6507,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -8423,13 +8423,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -10339,13 +10339,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -12255,13 +12255,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -14171,13 +14171,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>1.593625498007968</v>
+        <v>4.382470119521913</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -16087,13 +16087,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -18003,13 +18003,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -19919,13 +19919,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -21835,13 +21835,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -23751,13 +23751,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -25667,13 +25667,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -27583,13 +27583,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -29499,13 +29499,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -31415,13 +31415,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -33331,13 +33331,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -35247,13 +35247,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -37163,13 +37163,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -39079,13 +39079,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -40995,13 +40995,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -42911,13 +42911,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -44827,13 +44827,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -46743,13 +46743,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -48659,13 +48659,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -50575,13 +50575,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>1.593625498007968</v>
+        <v>4.382470119521913</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -52491,13 +52491,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -54407,13 +54407,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -56323,13 +56323,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.398406374501992</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/experiment_results/DataV2_0.5/ExamDB/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_0.5/ExamDB/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -759,13 +759,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2013,10 +2013,10 @@
         <v>79</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>0.796812749003984</v>
+        <v>1.593625498007968</v>
       </c>
       <c r="E35">
         <v>41</v>
@@ -2675,13 +2675,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -4591,13 +4591,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -6507,13 +6507,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -8423,13 +8423,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -10339,13 +10339,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -12255,13 +12255,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -14171,13 +14171,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>4.382470119521913</v>
+        <v>1.593625498007968</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -16087,13 +16087,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -18003,13 +18003,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -19919,13 +19919,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -21835,13 +21835,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -23751,13 +23751,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -25667,13 +25667,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -27583,13 +27583,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -29499,13 +29499,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -31415,13 +31415,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -33331,13 +33331,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -35247,13 +35247,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -37163,13 +37163,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -39079,13 +39079,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -40995,13 +40995,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -42911,13 +42911,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -44827,13 +44827,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -46743,13 +46743,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -48659,13 +48659,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -50575,13 +50575,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>4.382470119521913</v>
+        <v>1.593625498007968</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -52491,13 +52491,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -54407,13 +54407,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -56323,13 +56323,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
